--- a/Documents/Data/Education/Education.xlsx
+++ b/Documents/Data/Education/Education.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">What happens when a young Wall Street investment banker spends a small fortune to have lunch with Warren Buffett? He becomes a real value investor. In this fascinating inside story, Guy Spier details his career from Harvard MBA to hedge fund manager. But the path was not so straightforward. Spier reveals his transformation from a Gordon Gekko wannabe, driven by greed, to a sophisticated investor who enjoys success without selling his soul to the highest bidder. </t>
+  </si>
+  <si>
+    <t>ISBN13</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +221,12 @@
       <color rgb="FF333333"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,6 +256,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,25 +573,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" customWidth="1"/>
-    <col min="9" max="9" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,20 +608,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -624,20 +640,23 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="8">
+        <v>9781780226583</v>
+      </c>
+      <c r="G2" s="3">
         <v>10.17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -653,20 +672,23 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="8">
+        <v>9780170364379</v>
+      </c>
+      <c r="G3" s="3">
         <v>63.16</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>42544</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -682,20 +704,23 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="8">
+        <v>9780684838281</v>
+      </c>
+      <c r="G4" s="3">
         <v>7.34</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>39660</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -711,20 +736,23 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
+        <v>9780415583367</v>
+      </c>
+      <c r="G5" s="3">
         <v>55.9</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>40653</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -740,20 +768,23 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="8">
+        <v>9780316176200</v>
+      </c>
+      <c r="G6" s="3">
         <v>12.33</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>41521</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -769,20 +800,23 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="8">
+        <v>9780415690157</v>
+      </c>
+      <c r="G7" s="3">
         <v>33.950000000000003</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>41603</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -798,20 +832,23 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="8">
+        <v>9780140254037</v>
+      </c>
+      <c r="G8" s="3">
         <v>7.96</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>35089</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -827,20 +864,23 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="8">
+        <v>9780415623230</v>
+      </c>
+      <c r="G9" s="3">
         <v>39.6</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>41645</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -856,20 +896,23 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="8">
+        <v>9781571107282</v>
+      </c>
+      <c r="G10" s="3">
         <v>33.18</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>39931</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -885,16 +928,19 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
+        <v>9781137278814</v>
+      </c>
+      <c r="G11" s="3">
         <v>25.9</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>41898</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Documents/Data/Education/Education.xlsx
+++ b/Documents/Data/Education/Education.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>ISBN13</t>
+  </si>
+  <si>
+    <t>John Dewey</t>
   </si>
 </sst>
 </file>
@@ -191,13 +194,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -205,27 +208,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Roboto"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,17 +267,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,371 +610,371 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7">
         <v>9781780226583</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <v>10.17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7">
         <v>9780170364379</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="8">
         <v>63.16</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="12">
         <v>42544</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7">
         <v>9780684838281</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <v>7.34</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="12">
         <v>39660</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7">
         <v>9780415583367</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <v>55.9</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <v>40653</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7">
         <v>9780316176200</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <v>12.33</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <v>41521</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
         <v>9780415690157</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <v>33.950000000000003</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="12">
         <v>41603</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7">
         <v>9780140254037</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <v>7.96</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="13">
         <v>35089</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7">
         <v>9780415623230</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <v>39.6</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="12">
         <v>41645</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7">
         <v>9781571107282</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="8">
         <v>33.18</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="12">
         <v>39931</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
         <v>9781137278814</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <v>25.9</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="12">
         <v>41898</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>53</v>
       </c>
     </row>
